--- a/dados/Planilha de Acompanhamento Editoração 2020.xlsx
+++ b/dados/Planilha de Acompanhamento Editoração 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ensi-filer02\gerpubprop$\Administrativo\Administrativo Financeiro\2020\EDITORAÇÃO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpessoa/repositorios/Fluxo_Editorial/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5636EA9-D772-49ED-B834-666CD9F11413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD1A49-9520-7043-ACC1-3C3283F90756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="1660" windowWidth="29040" windowHeight="15840" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACOMPANHAMENTO" sheetId="68" r:id="rId1"/>
@@ -4316,6 +4316,39 @@
     <xf numFmtId="167" fontId="0" fillId="22" borderId="14" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4331,39 +4364,6 @@
     <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4385,6 +4385,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4414,15 +4423,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -12642,56 +12642,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:JC177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G23" sqref="G23"/>
-      <selection pane="bottomLeft" activeCell="N115" sqref="N115:T115"/>
+      <selection pane="bottomLeft" activeCell="GB20" sqref="GB20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="181" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="181" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="181" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="61" customWidth="1"/>
-    <col min="7" max="7" width="97.5703125" style="171" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="97.5" style="171" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="15" style="216" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="10" customWidth="1"/>
     <col min="11" max="11" width="10" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" customWidth="1"/>
     <col min="16" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="181" customWidth="1"/>
-    <col min="20" max="20" width="119.140625" style="1" customWidth="1"/>
-    <col min="21" max="206" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="207" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.1640625" style="181" customWidth="1"/>
+    <col min="20" max="20" width="119.1640625" style="1" customWidth="1"/>
+    <col min="21" max="206" width="9.1640625" style="1" customWidth="1"/>
+    <col min="207" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="43" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="275" t="s">
+    <row r="1" spans="1:20" s="43" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="277"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="272"/>
       <c r="M1" s="127">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
+        <v>44155</v>
       </c>
       <c r="N1" s="128"/>
       <c r="O1" s="128"/>
@@ -12701,7 +12702,7 @@
       <c r="S1" s="184"/>
       <c r="T1" s="129"/>
     </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="112" t="s">
         <v>21</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
         <v>21</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
         <v>21</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="131" t="s">
         <v>57</v>
       </c>
@@ -13011,7 +13012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="131" t="s">
         <v>57</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="131" t="s">
         <v>57</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="131" t="s">
         <v>57</v>
       </c>
@@ -13197,7 +13198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="131" t="s">
         <v>57</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="131" t="s">
         <v>57</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="131" t="s">
         <v>57</v>
       </c>
@@ -13383,7 +13384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="131" t="s">
         <v>57</v>
       </c>
@@ -13445,7 +13446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="81" t="s">
         <v>21</v>
       </c>
@@ -13507,7 +13508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="81" t="s">
         <v>21</v>
       </c>
@@ -13569,7 +13570,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
         <v>21</v>
       </c>
@@ -13631,7 +13632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="81" t="s">
         <v>21</v>
       </c>
@@ -13693,7 +13694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="81" t="s">
         <v>21</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="81" t="s">
         <v>21</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94" t="s">
         <v>21</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
         <v>21</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="141" t="s">
         <v>21</v>
       </c>
@@ -14003,11 +14004,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="273" t="s">
+    <row r="23" spans="1:20" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="268" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="274"/>
+      <c r="B23" s="269"/>
       <c r="C23" s="180"/>
       <c r="D23" s="180"/>
       <c r="E23" s="137"/>
@@ -14027,7 +14028,7 @@
       <c r="S23" s="180"/>
       <c r="T23" s="137"/>
     </row>
-    <row r="24" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="152" t="s">
         <v>21</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="97" t="s">
         <v>21</v>
       </c>
@@ -14151,7 +14152,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="97" t="s">
         <v>21</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="131" t="s">
         <v>216</v>
       </c>
@@ -14275,7 +14276,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="131" t="s">
         <v>57</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="s">
         <v>21</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="97" t="s">
         <v>21</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="131" t="s">
         <v>216</v>
       </c>
@@ -14523,7 +14524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="104" t="s">
         <v>57</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="104" t="s">
         <v>259</v>
       </c>
@@ -14647,7 +14648,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="72" t="s">
         <v>21</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="72" t="s">
         <v>21</v>
       </c>
@@ -14771,11 +14772,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="273" t="s">
+    <row r="36" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="268" t="s">
         <v>279</v>
       </c>
-      <c r="B36" s="274"/>
+      <c r="B36" s="269"/>
       <c r="C36" s="180"/>
       <c r="D36" s="180"/>
       <c r="E36" s="137"/>
@@ -14795,7 +14796,7 @@
       <c r="S36" s="180"/>
       <c r="T36" s="137"/>
     </row>
-    <row r="37" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="81" t="s">
         <v>21</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="81" t="s">
         <v>21</v>
       </c>
@@ -14919,7 +14920,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="97" t="s">
         <v>21</v>
       </c>
@@ -14981,7 +14982,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="81" t="s">
         <v>21</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="131" t="s">
         <v>57</v>
       </c>
@@ -15103,7 +15104,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="131" t="s">
         <v>216</v>
       </c>
@@ -15163,7 +15164,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="81" t="s">
         <v>21</v>
       </c>
@@ -15225,7 +15226,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="81" t="s">
         <v>21</v>
       </c>
@@ -15288,7 +15289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="81" t="s">
         <v>57</v>
       </c>
@@ -15348,7 +15349,7 @@
       </c>
       <c r="T45" s="89"/>
     </row>
-    <row r="46" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="81" t="s">
         <v>21</v>
       </c>
@@ -15410,7 +15411,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="81" t="s">
         <v>21</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="81" t="s">
         <v>21</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="81" t="s">
         <v>21</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="81" t="s">
         <v>21</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="81" t="s">
         <v>21</v>
       </c>
@@ -15720,7 +15721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="81" t="s">
         <v>21</v>
       </c>
@@ -15782,7 +15783,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="81" t="s">
         <v>21</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="81" t="s">
         <v>21</v>
       </c>
@@ -15906,7 +15907,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="81" t="s">
         <v>21</v>
       </c>
@@ -15968,7 +15969,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="81" t="s">
         <v>21</v>
       </c>
@@ -16030,7 +16031,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="81" t="s">
         <v>21</v>
       </c>
@@ -16092,7 +16093,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="81" t="s">
         <v>21</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="81" t="s">
         <v>21</v>
       </c>
@@ -16216,7 +16217,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="81" t="s">
         <v>21</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="81" t="s">
         <v>21</v>
       </c>
@@ -16340,7 +16341,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="131" t="s">
         <v>216</v>
       </c>
@@ -16398,7 +16399,7 @@
       <c r="S62" s="134"/>
       <c r="T62" s="91"/>
     </row>
-    <row r="63" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="131" t="s">
         <v>57</v>
       </c>
@@ -16456,7 +16457,7 @@
       <c r="S63" s="134"/>
       <c r="T63" s="91"/>
     </row>
-    <row r="64" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="81" t="s">
         <v>21</v>
       </c>
@@ -16518,7 +16519,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="81" t="s">
         <v>21</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="81" t="s">
         <v>21</v>
       </c>
@@ -16642,7 +16643,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="81" t="s">
         <v>21</v>
       </c>
@@ -16704,7 +16705,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="81" t="s">
         <v>21</v>
       </c>
@@ -16766,7 +16767,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="81" t="s">
         <v>21</v>
       </c>
@@ -16820,7 +16821,7 @@
       <c r="S69" s="84"/>
       <c r="T69" s="89"/>
     </row>
-    <row r="70" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="81" t="s">
         <v>21</v>
       </c>
@@ -16882,7 +16883,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="81" t="s">
         <v>21</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="81" t="s">
         <v>21</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="81" t="s">
         <v>21</v>
       </c>
@@ -17068,7 +17069,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="81" t="s">
         <v>21</v>
       </c>
@@ -17130,7 +17131,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="81" t="s">
         <v>21</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="81" t="s">
         <v>21</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="81" t="s">
         <v>21</v>
       </c>
@@ -17316,7 +17317,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="81" t="s">
         <v>21</v>
       </c>
@@ -17378,7 +17379,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="81" t="s">
         <v>21</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="81" t="s">
         <v>21</v>
       </c>
@@ -17500,7 +17501,7 @@
       </c>
       <c r="T80" s="89"/>
     </row>
-    <row r="81" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="81" t="s">
         <v>21</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="81" t="s">
         <v>21</v>
       </c>
@@ -17618,7 +17619,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="81" t="s">
         <v>21</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="252" t="s">
         <v>216</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="252" t="s">
         <v>216</v>
       </c>
@@ -17804,7 +17805,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="252" t="s">
         <v>216</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="252" t="s">
         <v>216</v>
       </c>
@@ -17928,7 +17929,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="252" t="s">
         <v>216</v>
       </c>
@@ -17990,7 +17991,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="252" t="s">
         <v>216</v>
       </c>
@@ -18052,7 +18053,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="252" t="s">
         <v>216</v>
       </c>
@@ -18114,7 +18115,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="252" t="s">
         <v>216</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="252" t="s">
         <v>216</v>
       </c>
@@ -18238,7 +18239,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="252" t="s">
         <v>216</v>
       </c>
@@ -18300,7 +18301,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="81" t="s">
         <v>21</v>
       </c>
@@ -18354,7 +18355,7 @@
       <c r="S94" s="84"/>
       <c r="T94" s="89"/>
     </row>
-    <row r="95" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="81" t="s">
         <v>21</v>
       </c>
@@ -18414,7 +18415,7 @@
       </c>
       <c r="T95" s="89"/>
     </row>
-    <row r="96" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="81" t="s">
         <v>21</v>
       </c>
@@ -18476,7 +18477,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="81" t="s">
         <v>21</v>
       </c>
@@ -18538,7 +18539,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="81" t="s">
         <v>21</v>
       </c>
@@ -18592,7 +18593,7 @@
       <c r="S98" s="84"/>
       <c r="T98" s="89"/>
     </row>
-    <row r="99" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="252" t="s">
         <v>216</v>
       </c>
@@ -18642,7 +18643,7 @@
       <c r="S99" s="253"/>
       <c r="T99" s="261"/>
     </row>
-    <row r="100" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="81" t="s">
         <v>21</v>
       </c>
@@ -18704,7 +18705,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="81" t="s">
         <v>21</v>
       </c>
@@ -18766,7 +18767,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="252" t="s">
         <v>216</v>
       </c>
@@ -18816,7 +18817,7 @@
       <c r="S102" s="253"/>
       <c r="T102" s="261"/>
     </row>
-    <row r="103" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="81" t="s">
         <v>21</v>
       </c>
@@ -18878,7 +18879,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="81" t="s">
         <v>21</v>
       </c>
@@ -18934,7 +18935,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="81" t="s">
         <v>21</v>
       </c>
@@ -18988,7 +18989,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="81" t="s">
         <v>21</v>
       </c>
@@ -19042,7 +19043,7 @@
       <c r="S106" s="84"/>
       <c r="T106" s="89"/>
     </row>
-    <row r="107" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="81" t="s">
         <v>21</v>
       </c>
@@ -19096,7 +19097,7 @@
       <c r="S107" s="84"/>
       <c r="T107" s="89"/>
     </row>
-    <row r="108" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="81" t="s">
         <v>21</v>
       </c>
@@ -19150,7 +19151,7 @@
       <c r="S108" s="84"/>
       <c r="T108" s="89"/>
     </row>
-    <row r="109" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="81" t="s">
         <v>21</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="81" t="s">
         <v>21</v>
       </c>
@@ -19258,7 +19259,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="81" t="s">
         <v>21</v>
       </c>
@@ -19310,7 +19311,7 @@
       <c r="S111" s="84"/>
       <c r="T111" s="89"/>
     </row>
-    <row r="112" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="81" t="s">
         <v>21</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="252" t="s">
         <v>216</v>
       </c>
@@ -19412,7 +19413,7 @@
       <c r="S113" s="253"/>
       <c r="T113" s="261"/>
     </row>
-    <row r="114" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="81" t="s">
         <v>21</v>
       </c>
@@ -19474,7 +19475,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="81" t="s">
         <v>21</v>
       </c>
@@ -19536,7 +19537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="81" t="s">
         <v>21</v>
       </c>
@@ -19590,7 +19591,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="81" t="s">
         <v>21</v>
       </c>
@@ -19650,7 +19651,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="81"/>
       <c r="B118" s="81"/>
       <c r="C118" s="84"/>
@@ -19672,7 +19673,7 @@
       <c r="S118" s="84"/>
       <c r="T118" s="89"/>
     </row>
-    <row r="119" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="81"/>
       <c r="B119" s="81"/>
       <c r="C119" s="84"/>
@@ -19694,7 +19695,7 @@
       <c r="S119" s="84"/>
       <c r="T119" s="89"/>
     </row>
-    <row r="120" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="81"/>
       <c r="B120" s="81"/>
       <c r="C120" s="84"/>
@@ -19716,7 +19717,7 @@
       <c r="S120" s="84"/>
       <c r="T120" s="89"/>
     </row>
-    <row r="121" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="238"/>
       <c r="B121" s="249" t="s">
         <v>528</v>
@@ -19740,7 +19741,7 @@
       <c r="S121" s="239"/>
       <c r="T121" s="248"/>
     </row>
-    <row r="122" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="81" t="s">
         <v>216</v>
       </c>
@@ -19802,7 +19803,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="81" t="s">
         <v>57</v>
       </c>
@@ -19864,7 +19865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="105" t="s">
         <v>57</v>
       </c>
@@ -19926,7 +19927,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="105" t="s">
         <v>57</v>
       </c>
@@ -19988,7 +19989,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="105" t="s">
         <v>57</v>
       </c>
@@ -20050,7 +20051,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="105" t="s">
         <v>57</v>
       </c>
@@ -20112,7 +20113,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="105" t="s">
         <v>57</v>
       </c>
@@ -20174,7 +20175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="105" t="s">
         <v>216</v>
       </c>
@@ -20224,7 +20225,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="130" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="105" t="s">
         <v>57</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="131" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="105"/>
       <c r="B131" s="105"/>
       <c r="C131" s="109"/>
@@ -20296,7 +20297,7 @@
       <c r="S131" s="109"/>
       <c r="T131" s="109"/>
     </row>
-    <row r="132" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="105"/>
       <c r="B132" s="237"/>
       <c r="C132" s="109"/>
@@ -20318,7 +20319,7 @@
       <c r="S132" s="109"/>
       <c r="T132" s="109"/>
     </row>
-    <row r="133" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="105"/>
       <c r="B133" s="105"/>
       <c r="C133" s="109"/>
@@ -20340,7 +20341,7 @@
       <c r="S133" s="109"/>
       <c r="T133" s="109"/>
     </row>
-    <row r="134" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:263" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="105"/>
       <c r="B134" s="105"/>
       <c r="C134" s="109"/>
@@ -20362,17 +20363,17 @@
       <c r="S134" s="109"/>
       <c r="T134" s="109"/>
     </row>
-    <row r="135" spans="1:263" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="279" t="s">
+    <row r="135" spans="1:263" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="274" t="s">
         <v>525</v>
       </c>
-      <c r="B135" s="279"/>
-      <c r="C135" s="279"/>
-      <c r="D135" s="279"/>
-      <c r="E135" s="279"/>
-      <c r="F135" s="279"/>
-      <c r="G135" s="279"/>
-      <c r="H135" s="279"/>
+      <c r="B135" s="274"/>
+      <c r="C135" s="274"/>
+      <c r="D135" s="274"/>
+      <c r="E135" s="274"/>
+      <c r="F135" s="274"/>
+      <c r="G135" s="274"/>
+      <c r="H135" s="274"/>
       <c r="I135" s="111">
         <f>SUM(I3:$I$134)</f>
         <v>491376.26999999967</v>
@@ -20381,18 +20382,18 @@
         <f>SUM(J3:$J$134)</f>
         <v>515110.14</v>
       </c>
-      <c r="K135" s="280"/>
-      <c r="L135" s="280"/>
-      <c r="M135" s="280"/>
-      <c r="N135" s="280"/>
-      <c r="O135" s="280"/>
-      <c r="P135" s="280"/>
-      <c r="Q135" s="280"/>
-      <c r="R135" s="280"/>
-      <c r="S135" s="280"/>
-      <c r="T135" s="280"/>
-    </row>
-    <row r="136" spans="1:263" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K135" s="275"/>
+      <c r="L135" s="275"/>
+      <c r="M135" s="275"/>
+      <c r="N135" s="275"/>
+      <c r="O135" s="275"/>
+      <c r="P135" s="275"/>
+      <c r="Q135" s="275"/>
+      <c r="R135" s="275"/>
+      <c r="S135" s="275"/>
+      <c r="T135" s="275"/>
+    </row>
+    <row r="136" spans="1:263" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C136" s="181"/>
       <c r="D136" s="181"/>
       <c r="G136" s="170"/>
@@ -20409,17 +20410,17 @@
       <c r="S136" s="182"/>
       <c r="T136" s="27"/>
     </row>
-    <row r="137" spans="1:263" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:263" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="G137" s="170"/>
       <c r="I137" s="215"/>
-      <c r="J137" s="283" t="s">
+      <c r="J137" s="278" t="s">
         <v>526</v>
       </c>
-      <c r="K137" s="283"/>
-      <c r="L137" s="283"/>
-      <c r="M137" s="283"/>
+      <c r="K137" s="278"/>
+      <c r="L137" s="278"/>
+      <c r="M137" s="278"/>
       <c r="N137" s="1"/>
       <c r="O137" s="27"/>
       <c r="P137" s="27"/>
@@ -20428,7 +20429,7 @@
       <c r="S137" s="263"/>
       <c r="T137" s="262"/>
     </row>
-    <row r="138" spans="1:263" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:263" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="220"/>
       <c r="B138" s="221" t="s">
         <v>569</v>
@@ -20437,10 +20438,10 @@
       <c r="D138" s="181"/>
       <c r="G138" s="170"/>
       <c r="I138" s="215"/>
-      <c r="J138" s="281" t="s">
+      <c r="J138" s="276" t="s">
         <v>527</v>
       </c>
-      <c r="K138" s="281"/>
+      <c r="K138" s="276"/>
       <c r="L138" s="19">
         <f>SUMIFS($J$3:$J$134,$F$3:$F$134,"Editorar")</f>
         <v>482592.99</v>
@@ -20457,15 +20458,15 @@
       <c r="S138" s="182"/>
       <c r="T138" s="27"/>
     </row>
-    <row r="139" spans="1:263" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:263" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="181"/>
       <c r="D139" s="181"/>
       <c r="G139" s="170"/>
       <c r="I139" s="215"/>
-      <c r="J139" s="281" t="s">
+      <c r="J139" s="276" t="s">
         <v>528</v>
       </c>
-      <c r="K139" s="281"/>
+      <c r="K139" s="276"/>
       <c r="L139" s="19">
         <f>SUMIFS($J$3:$J$134,$F$3:$F$134,"Icomunicação")</f>
         <v>32517.15</v>
@@ -20482,13 +20483,13 @@
       <c r="S139" s="182"/>
       <c r="T139" s="27"/>
     </row>
-    <row r="140" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:263" x14ac:dyDescent="0.2">
       <c r="A140" s="201"/>
       <c r="F140" s="201"/>
-      <c r="J140" s="282" t="s">
+      <c r="J140" s="277" t="s">
         <v>529</v>
       </c>
-      <c r="K140" s="282"/>
+      <c r="K140" s="277"/>
       <c r="L140" s="21">
         <f>SUM(L138:L139)</f>
         <v>515110.14</v>
@@ -20505,7 +20506,7 @@
       <c r="S140" s="182"/>
       <c r="T140" s="27"/>
     </row>
-    <row r="141" spans="1:263" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:263" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="181"/>
@@ -20517,8 +20518,8 @@
       <c r="I141" s="215"/>
       <c r="J141" s="14"/>
       <c r="K141" s="12"/>
-      <c r="L141" s="278"/>
-      <c r="M141" s="278"/>
+      <c r="L141" s="273"/>
+      <c r="M141" s="273"/>
       <c r="N141" s="27"/>
       <c r="O141" s="27"/>
       <c r="P141" s="27"/>
@@ -20770,7 +20771,7 @@
       <c r="JB141" s="14"/>
       <c r="JC141" s="14"/>
     </row>
-    <row r="142" spans="1:263" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:263" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="181"/>
@@ -20780,12 +20781,12 @@
       <c r="G142" s="170"/>
       <c r="H142" s="14"/>
       <c r="I142" s="215"/>
-      <c r="J142" s="272" t="s">
+      <c r="J142" s="283" t="s">
         <v>530</v>
       </c>
-      <c r="K142" s="272"/>
-      <c r="L142" s="272"/>
-      <c r="M142" s="272"/>
+      <c r="K142" s="283"/>
+      <c r="L142" s="283"/>
+      <c r="M142" s="283"/>
       <c r="N142" s="27"/>
       <c r="O142" s="27"/>
       <c r="P142" s="27"/>
@@ -21037,7 +21038,7 @@
       <c r="JB142" s="14"/>
       <c r="JC142" s="14"/>
     </row>
-    <row r="143" spans="1:263" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:263" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="181"/>
@@ -21047,10 +21048,10 @@
       <c r="G143" s="170"/>
       <c r="H143" s="14"/>
       <c r="I143" s="215"/>
-      <c r="J143" s="270" t="s">
+      <c r="J143" s="281" t="s">
         <v>527</v>
       </c>
-      <c r="K143" s="270"/>
+      <c r="K143" s="281"/>
       <c r="L143" s="23">
         <f>SUM(O150:$P$150)</f>
         <v>246242.52</v>
@@ -21310,7 +21311,7 @@
       <c r="JB143" s="14"/>
       <c r="JC143" s="14"/>
     </row>
-    <row r="144" spans="1:263" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:263" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="181"/>
@@ -21320,10 +21321,10 @@
       <c r="G144" s="170"/>
       <c r="H144" s="14"/>
       <c r="I144" s="215"/>
-      <c r="J144" s="270" t="s">
+      <c r="J144" s="281" t="s">
         <v>528</v>
       </c>
-      <c r="K144" s="270"/>
+      <c r="K144" s="281"/>
       <c r="L144" s="23">
         <f>SUM(O151:P151)</f>
         <v>32517.149999999998</v>
@@ -21583,14 +21584,14 @@
       <c r="JB144" s="14"/>
       <c r="JC144" s="14"/>
     </row>
-    <row r="145" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:215" x14ac:dyDescent="0.2">
       <c r="C145" s="182"/>
       <c r="D145" s="182"/>
       <c r="F145" s="201"/>
-      <c r="J145" s="271" t="s">
+      <c r="J145" s="282" t="s">
         <v>529</v>
       </c>
-      <c r="K145" s="271"/>
+      <c r="K145" s="282"/>
       <c r="L145" s="25">
         <f>SUM(L143:L144)</f>
         <v>278759.67</v>
@@ -21802,7 +21803,7 @@
       <c r="HF145" s="27"/>
       <c r="HG145" s="27"/>
     </row>
-    <row r="146" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:215" x14ac:dyDescent="0.2">
       <c r="C146" s="182"/>
       <c r="D146" s="182"/>
       <c r="F146" s="201"/>
@@ -22012,7 +22013,7 @@
       <c r="HF146" s="27"/>
       <c r="HG146" s="27"/>
     </row>
-    <row r="147" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:215" ht="16" x14ac:dyDescent="0.2">
       <c r="C147" s="183"/>
       <c r="D147" s="183"/>
       <c r="F147" s="201"/>
@@ -22226,7 +22227,7 @@
       <c r="HF147" s="27"/>
       <c r="HG147" s="27"/>
     </row>
-    <row r="148" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:215" ht="16" x14ac:dyDescent="0.2">
       <c r="C148" s="183"/>
       <c r="D148" s="183"/>
       <c r="F148" s="201"/>
@@ -22440,7 +22441,7 @@
       <c r="HF148" s="27"/>
       <c r="HG148" s="27"/>
     </row>
-    <row r="149" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:215" ht="16" x14ac:dyDescent="0.2">
       <c r="C149" s="183"/>
       <c r="D149" s="183"/>
       <c r="F149" s="201"/>
@@ -22662,7 +22663,7 @@
       <c r="HF149" s="27"/>
       <c r="HG149" s="27"/>
     </row>
-    <row r="150" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:215" ht="16" x14ac:dyDescent="0.2">
       <c r="C150" s="183"/>
       <c r="D150" s="183"/>
       <c r="F150" s="201"/>
@@ -22890,7 +22891,7 @@
       <c r="HF150" s="27"/>
       <c r="HG150" s="27"/>
     </row>
-    <row r="151" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:215" ht="16" x14ac:dyDescent="0.2">
       <c r="C151" s="183"/>
       <c r="D151" s="183"/>
       <c r="F151" s="201"/>
@@ -23111,22 +23112,22 @@
       <c r="HF151" s="27"/>
       <c r="HG151" s="27"/>
     </row>
-    <row r="152" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A152" s="268" t="s">
+    <row r="152" spans="1:215" x14ac:dyDescent="0.2">
+      <c r="A152" s="279" t="s">
         <v>534</v>
       </c>
-      <c r="B152" s="268"/>
-      <c r="C152" s="268"/>
-      <c r="D152" s="268"/>
-      <c r="E152" s="268"/>
-      <c r="F152" s="268"/>
-      <c r="G152" s="268"/>
-      <c r="H152" s="269"/>
-      <c r="I152" s="269"/>
-      <c r="J152" s="268"/>
-      <c r="K152" s="268"/>
-      <c r="L152" s="268"/>
-      <c r="M152" s="268"/>
+      <c r="B152" s="279"/>
+      <c r="C152" s="279"/>
+      <c r="D152" s="279"/>
+      <c r="E152" s="279"/>
+      <c r="F152" s="279"/>
+      <c r="G152" s="279"/>
+      <c r="H152" s="280"/>
+      <c r="I152" s="280"/>
+      <c r="J152" s="279"/>
+      <c r="K152" s="279"/>
+      <c r="L152" s="279"/>
+      <c r="M152" s="279"/>
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
       <c r="P152" s="13"/>
@@ -23330,7 +23331,7 @@
       <c r="HF152" s="27"/>
       <c r="HG152" s="27"/>
     </row>
-    <row r="153" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C153" s="192"/>
       <c r="D153" s="192"/>
       <c r="F153" s="193"/>
@@ -23347,7 +23348,7 @@
       <c r="S153" s="265"/>
       <c r="T153" s="264"/>
     </row>
-    <row r="154" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C154" s="192"/>
       <c r="D154" s="230"/>
       <c r="E154" s="231"/>
@@ -23365,7 +23366,7 @@
       <c r="S154" s="265"/>
       <c r="T154" s="264"/>
     </row>
-    <row r="155" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:215" s="191" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C155" s="192"/>
       <c r="D155" s="230"/>
       <c r="E155" s="231" t="s">
@@ -23387,7 +23388,7 @@
       <c r="S155" s="265"/>
       <c r="T155" s="264"/>
     </row>
-    <row r="156" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:215" s="191" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C156" s="192"/>
       <c r="D156" s="230"/>
       <c r="E156" s="231" t="s">
@@ -23409,7 +23410,7 @@
       <c r="S156" s="265"/>
       <c r="T156" s="264"/>
     </row>
-    <row r="157" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:215" s="191" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C157" s="192"/>
       <c r="D157" s="230"/>
       <c r="E157" s="231" t="s">
@@ -23431,7 +23432,7 @@
       <c r="S157" s="265"/>
       <c r="T157" s="264"/>
     </row>
-    <row r="158" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:215" s="191" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C158" s="192"/>
       <c r="D158" s="230"/>
       <c r="E158" s="231" t="s">
@@ -23453,7 +23454,7 @@
       <c r="S158" s="265"/>
       <c r="T158" s="264"/>
     </row>
-    <row r="159" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:215" s="191" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C159" s="192"/>
       <c r="D159" s="230"/>
       <c r="E159" s="231"/>
@@ -23470,7 +23471,7 @@
       <c r="S159" s="265"/>
       <c r="T159" s="264"/>
     </row>
-    <row r="160" spans="1:215" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:215" x14ac:dyDescent="0.2">
       <c r="B160" s="60"/>
       <c r="C160" s="182"/>
       <c r="D160" s="235"/>
@@ -23485,7 +23486,7 @@
       <c r="S160" s="182"/>
       <c r="T160" s="27"/>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C161" s="182"/>
       <c r="D161" s="182"/>
       <c r="F161" s="201"/>
@@ -23497,7 +23498,7 @@
       <c r="S161" s="182"/>
       <c r="T161" s="27"/>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C162" s="182"/>
       <c r="D162" s="182"/>
       <c r="F162" s="201"/>
@@ -23509,7 +23510,7 @@
       <c r="S162" s="182"/>
       <c r="T162" s="27"/>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C163" s="182"/>
       <c r="D163" s="182"/>
       <c r="F163" s="201"/>
@@ -23521,7 +23522,7 @@
       <c r="S163" s="182"/>
       <c r="T163" s="27"/>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C164" s="182"/>
       <c r="D164" s="182"/>
       <c r="F164" s="201"/>
@@ -23533,7 +23534,7 @@
       <c r="S164" s="182"/>
       <c r="T164" s="27"/>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C165" s="182"/>
       <c r="D165" s="182"/>
       <c r="F165" s="201"/>
@@ -23545,7 +23546,7 @@
       <c r="S165" s="182"/>
       <c r="T165" s="27"/>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C166" s="182"/>
       <c r="D166" s="182"/>
       <c r="F166" s="201"/>
@@ -23557,7 +23558,7 @@
       <c r="S166" s="182"/>
       <c r="T166" s="27"/>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C167" s="182"/>
       <c r="D167" s="182"/>
       <c r="F167" s="201"/>
@@ -23569,7 +23570,7 @@
       <c r="S167" s="182"/>
       <c r="T167" s="27"/>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C168" s="182"/>
       <c r="D168" s="182"/>
       <c r="F168" s="201"/>
@@ -23581,7 +23582,7 @@
       <c r="S168" s="182"/>
       <c r="T168" s="27"/>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C169" s="182"/>
       <c r="D169" s="182"/>
       <c r="F169" s="201"/>
@@ -23593,7 +23594,7 @@
       <c r="S169" s="182"/>
       <c r="T169" s="27"/>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C170" s="182"/>
       <c r="D170" s="182"/>
       <c r="F170" s="201"/>
@@ -23605,7 +23606,7 @@
       <c r="S170" s="182"/>
       <c r="T170" s="27"/>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C171" s="182"/>
       <c r="D171" s="182"/>
       <c r="F171" s="201"/>
@@ -23617,22 +23618,22 @@
       <c r="S171" s="182"/>
       <c r="T171" s="27"/>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F172" s="201"/>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F173" s="201"/>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F174" s="201"/>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F175" s="201"/>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F176" s="201"/>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F177" s="201"/>
     </row>
   </sheetData>
@@ -23642,6 +23643,11 @@
     <sortCondition ref="H3"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="J142:M142"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A1:L1"/>
@@ -23652,11 +23658,6 @@
     <mergeCell ref="J139:K139"/>
     <mergeCell ref="J140:K140"/>
     <mergeCell ref="J137:M137"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="J142:M142"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23666,7 +23667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha2">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23676,61 +23677,61 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="44" customWidth="1"/>
     <col min="2" max="2" width="4" style="44" customWidth="1"/>
     <col min="3" max="3" width="38" style="44" customWidth="1"/>
     <col min="4" max="4" width="43" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="44" customWidth="1"/>
     <col min="7" max="7" width="4" style="44" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="44" customWidth="1"/>
-    <col min="10" max="12" width="13.5703125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10.140625" style="44" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="44" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" style="44" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="44" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="44"/>
+    <col min="8" max="8" width="17.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="44" customWidth="1"/>
+    <col min="10" max="12" width="13.5" style="44" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.1640625" style="44" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" style="44" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" style="44" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" style="44" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D1" s="287"/>
       <c r="E1" s="287"/>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D2" s="287"/>
       <c r="E2" s="287"/>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D3" s="287"/>
       <c r="E3" s="287"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D4" s="287"/>
       <c r="E4" s="287"/>
     </row>
-    <row r="5" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="287"/>
       <c r="E5" s="287"/>
     </row>
-    <row r="6" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="288" t="s">
         <v>549</v>
       </c>
@@ -23738,33 +23739,33 @@
       <c r="E6" s="288"/>
       <c r="F6" s="288"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F7" s="45">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C9" s="46" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C10" s="46" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C11" s="46" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="46" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="284" t="s">
         <v>553</v>
       </c>
@@ -23772,13 +23773,13 @@
       <c r="E13" s="284"/>
       <c r="F13" s="284"/>
     </row>
-    <row r="14" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C15" s="46" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C18" s="47" t="s">
         <v>554</v>
       </c>
@@ -23792,7 +23793,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="48">
         <v>2000000</v>
       </c>
@@ -23808,8 +23809,8 @@
         <v>1721240.33</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="285" t="s">
         <v>545</v>
       </c>
@@ -23817,18 +23818,18 @@
       <c r="E21" s="285"/>
       <c r="F21" s="285"/>
     </row>
-    <row r="24" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="3:8" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C26" s="47" t="s">
         <v>1</v>
       </c>
@@ -23842,7 +23843,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="51" t="s">
         <v>216</v>
       </c>
@@ -23863,7 +23864,7 @@
         <v>18633006.800000001</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="51" t="s">
         <v>57</v>
       </c>
@@ -23880,7 +23881,7 @@
         <v>123099.33</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="54" t="s">
         <v>529</v>
       </c>
@@ -23897,8 +23898,8 @@
         <v>278759.67</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="55" t="s">
         <v>547</v>
       </c>
@@ -23906,54 +23907,54 @@
       <c r="E31" s="56"/>
       <c r="F31" s="57"/>
     </row>
-    <row r="32" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="286" t="s">
         <v>556</v>
       </c>
       <c r="D32" s="286"/>
     </row>
-    <row r="33" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="286"/>
       <c r="D33" s="286"/>
     </row>
-    <row r="34" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="286"/>
       <c r="D34" s="286"/>
     </row>
-    <row r="35" spans="3:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H36" s="53">
         <v>593224.34</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H37" s="53">
         <v>647505</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H38" s="53">
         <v>400000</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H39" s="53">
         <v>650000</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H40" s="53">
         <v>2411611.87</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H41" s="58"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H42" s="58"/>
     </row>
   </sheetData>
@@ -23982,7 +23983,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD9E45-D696-4F1A-828B-2D4169DDAB48}">
-  <sheetPr>
+  <sheetPr codeName="Planilha3">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23992,76 +23993,76 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="44" customWidth="1"/>
     <col min="2" max="2" width="4" style="44" customWidth="1"/>
     <col min="3" max="3" width="38" style="44" customWidth="1"/>
     <col min="4" max="4" width="43" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="44" customWidth="1"/>
     <col min="7" max="7" width="4" style="44" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="44" customWidth="1"/>
-    <col min="10" max="12" width="13.5703125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10.140625" style="44" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="44" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" style="44" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="44" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="44"/>
+    <col min="8" max="8" width="17.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="44" customWidth="1"/>
+    <col min="10" max="12" width="13.5" style="44" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.1640625" style="44" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" style="44" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" style="44" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" style="44" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D1" s="287"/>
       <c r="E1" s="287"/>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D2" s="289"/>
       <c r="E2" s="289"/>
       <c r="F2" s="218"/>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D3" s="218"/>
       <c r="E3" s="290" t="s">
         <v>535</v>
       </c>
       <c r="F3" s="290"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D4" s="218"/>
       <c r="E4" s="290" t="s">
         <v>536</v>
       </c>
       <c r="F4" s="290"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D5" s="218"/>
       <c r="E5" s="290" t="s">
         <v>537</v>
       </c>
       <c r="F5" s="290"/>
     </row>
-    <row r="6" spans="3:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="289"/>
       <c r="E6" s="289"/>
       <c r="F6" s="218"/>
     </row>
-    <row r="7" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="288" t="s">
         <v>538</v>
       </c>
@@ -24069,34 +24070,34 @@
       <c r="E7" s="288"/>
       <c r="F7" s="288"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F8" s="45">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C10" s="46" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C11" s="46" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:6" ht="19" x14ac:dyDescent="0.25">
       <c r="C14" s="46" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C17" s="223" t="s">
         <v>543</v>
       </c>
@@ -24107,7 +24108,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="225">
         <v>420765.19</v>
       </c>
@@ -24120,8 +24121,8 @@
         <v>515110.14000000013</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="285" t="s">
         <v>545</v>
       </c>
@@ -24129,18 +24130,18 @@
       <c r="E20" s="285"/>
       <c r="F20" s="285"/>
     </row>
-    <row r="23" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="3:8" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C25" s="223" t="s">
         <v>1</v>
       </c>
@@ -24154,7 +24155,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="226" t="s">
         <v>21</v>
       </c>
@@ -24175,7 +24176,7 @@
         <v>18633006.800000001</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="226" t="s">
         <v>216</v>
       </c>
@@ -24192,7 +24193,7 @@
         <v>155660.33999999997</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="226" t="s">
         <v>57</v>
       </c>
@@ -24213,7 +24214,7 @@
         <v>18633006.800000001</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="226" t="s">
         <v>259</v>
       </c>
@@ -24230,7 +24231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="227" t="s">
         <v>529</v>
       </c>
@@ -24247,8 +24248,8 @@
         <v>515110.14000000013</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="55" t="s">
         <v>547</v>
       </c>
@@ -24256,54 +24257,54 @@
       <c r="E32" s="56"/>
       <c r="F32" s="57"/>
     </row>
-    <row r="33" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="286" t="s">
         <v>548</v>
       </c>
       <c r="D33" s="286"/>
     </row>
-    <row r="34" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="286"/>
       <c r="D34" s="286"/>
     </row>
-    <row r="35" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="286"/>
       <c r="D35" s="286"/>
     </row>
-    <row r="36" spans="3:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D36" s="44"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H37" s="53">
         <v>593224.34</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H38" s="53">
         <v>647505</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H39" s="53">
         <v>400000</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H40" s="53">
         <v>650000</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="53">
         <v>2411611.87</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H42" s="58"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H43" s="58"/>
     </row>
   </sheetData>
@@ -24337,7 +24338,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R46"/>
@@ -24346,24 +24347,24 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" hidden="1"/>
+    <col min="11" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="17" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K2" s="290" t="s">
         <v>535</v>
       </c>
@@ -24371,7 +24372,7 @@
       <c r="M2" s="290"/>
       <c r="N2" s="290"/>
     </row>
-    <row r="3" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K3" s="290" t="s">
         <v>536</v>
       </c>
@@ -24379,7 +24380,7 @@
       <c r="M3" s="290"/>
       <c r="N3" s="290"/>
     </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="290" t="s">
         <v>537</v>
       </c>
@@ -24387,93 +24388,93 @@
       <c r="M4" s="290"/>
       <c r="N4" s="290"/>
     </row>
-    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="301" t="s">
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="291" t="s">
         <v>557</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="301"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="302">
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
+      <c r="K5" s="291"/>
+      <c r="L5" s="291"/>
+      <c r="M5" s="291"/>
+      <c r="N5" s="291"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
+      <c r="E6" s="291"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="291"/>
+      <c r="K6" s="291"/>
+      <c r="L6" s="291"/>
+      <c r="M6" s="291"/>
+      <c r="N6" s="291"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="292">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
-      </c>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="291" t="s">
+        <v>44155</v>
+      </c>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="293"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="294" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="292"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="292"/>
-      <c r="N8" s="292"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="299" t="s">
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="295"/>
+      <c r="I8" s="295"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="295"/>
+      <c r="N8" s="295"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="302" t="s">
         <v>559</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="I10" s="296" t="s">
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="I10" s="299" t="s">
         <v>560</v>
       </c>
-      <c r="J10" s="297"/>
-      <c r="K10" s="297"/>
-      <c r="L10" s="297"/>
-      <c r="M10" s="297"/>
-      <c r="N10" s="298"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="300"/>
+      <c r="K10" s="300"/>
+      <c r="L10" s="300"/>
+      <c r="M10" s="300"/>
+      <c r="N10" s="301"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -24487,7 +24488,7 @@
       <c r="M11" s="35"/>
       <c r="N11" s="37"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -24501,7 +24502,7 @@
       <c r="M12" s="35"/>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -24515,25 +24516,25 @@
       <c r="M13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="300" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="303" t="s">
         <v>561</v>
       </c>
-      <c r="C14" s="300"/>
+      <c r="C14" s="303"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="I14" s="294" t="s">
+      <c r="I14" s="297" t="s">
         <v>562</v>
       </c>
-      <c r="J14" s="295"/>
+      <c r="J14" s="298"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>79</v>
       </c>
@@ -24557,7 +24558,7 @@
       <c r="M15" s="35"/>
       <c r="N15" s="37"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>38</v>
       </c>
@@ -24581,7 +24582,7 @@
       <c r="M16" s="35"/>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
         <v>24</v>
       </c>
@@ -24605,7 +24606,7 @@
       <c r="M17" s="35"/>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>563</v>
       </c>
@@ -24624,7 +24625,7 @@
       <c r="M18" s="35"/>
       <c r="N18" s="37"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -24638,7 +24639,7 @@
       <c r="M19" s="35"/>
       <c r="N19" s="37"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -24652,7 +24653,7 @@
       <c r="M20" s="35"/>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -24666,7 +24667,7 @@
       <c r="M21" s="35"/>
       <c r="N21" s="37"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -24680,7 +24681,7 @@
       <c r="M22" s="35"/>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -24694,7 +24695,7 @@
       <c r="M23" s="35"/>
       <c r="N23" s="37"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -24708,25 +24709,25 @@
       <c r="M24" s="35"/>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="300" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="303" t="s">
         <v>564</v>
       </c>
-      <c r="C25" s="300"/>
+      <c r="C25" s="303"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="I25" s="294" t="s">
+      <c r="I25" s="297" t="s">
         <v>565</v>
       </c>
-      <c r="J25" s="295"/>
+      <c r="J25" s="298"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="29" t="s">
         <v>25</v>
       </c>
@@ -24750,7 +24751,7 @@
       <c r="M26" s="35"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
         <v>504</v>
       </c>
@@ -24774,7 +24775,7 @@
       <c r="M27" s="35"/>
       <c r="N27" s="37"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
         <v>563</v>
       </c>
@@ -24798,7 +24799,7 @@
       <c r="M28" s="35"/>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -24812,7 +24813,7 @@
       <c r="M29" s="35"/>
       <c r="N29" s="37"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -24826,7 +24827,7 @@
       <c r="M30" s="35"/>
       <c r="N30" s="37"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -24840,7 +24841,7 @@
       <c r="M31" s="35"/>
       <c r="N31" s="37"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -24854,7 +24855,7 @@
       <c r="M32" s="35"/>
       <c r="N32" s="37"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -24868,7 +24869,7 @@
       <c r="M33" s="35"/>
       <c r="N33" s="37"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -24882,25 +24883,25 @@
       <c r="M34" s="35"/>
       <c r="N34" s="37"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="300" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="303" t="s">
         <v>566</v>
       </c>
-      <c r="C35" s="300"/>
+      <c r="C35" s="303"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
-      <c r="I35" s="294" t="s">
+      <c r="I35" s="297" t="s">
         <v>567</v>
       </c>
-      <c r="J35" s="295"/>
+      <c r="J35" s="298"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="37"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="s">
         <v>21</v>
       </c>
@@ -24924,7 +24925,7 @@
       <c r="M36" s="35"/>
       <c r="N36" s="37"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="29" t="s">
         <v>216</v>
       </c>
@@ -24948,7 +24949,7 @@
       <c r="M37" s="35"/>
       <c r="N37" s="37"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>57</v>
       </c>
@@ -24972,7 +24973,7 @@
       <c r="M38" s="35"/>
       <c r="N38" s="37"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="s">
         <v>259</v>
       </c>
@@ -24996,7 +24997,7 @@
       <c r="M39" s="35"/>
       <c r="N39" s="37"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="31" t="s">
         <v>563</v>
       </c>
@@ -25020,7 +25021,7 @@
       <c r="M40" s="35"/>
       <c r="N40" s="37"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
@@ -25034,7 +25035,7 @@
       <c r="M41" s="35"/>
       <c r="N41" s="37"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -25048,7 +25049,7 @@
       <c r="M42" s="35"/>
       <c r="N42" s="37"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
@@ -25062,33 +25063,28 @@
       <c r="M43" s="41"/>
       <c r="N43" s="42"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="293" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="296" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="293"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="293"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="293"/>
-      <c r="H45" s="293"/>
-      <c r="I45" s="293"/>
-      <c r="J45" s="293"/>
-      <c r="K45" s="293"/>
-      <c r="L45" s="293"/>
-      <c r="M45" s="293"/>
-      <c r="N45" s="293"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25"/>
+      <c r="C45" s="296"/>
+      <c r="D45" s="296"/>
+      <c r="E45" s="296"/>
+      <c r="F45" s="296"/>
+      <c r="G45" s="296"/>
+      <c r="H45" s="296"/>
+      <c r="I45" s="296"/>
+      <c r="J45" s="296"/>
+      <c r="K45" s="296"/>
+      <c r="L45" s="296"/>
+      <c r="M45" s="296"/>
+      <c r="N45" s="296"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="15">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:N6"/>
-    <mergeCell ref="B7:N7"/>
     <mergeCell ref="B8:N8"/>
     <mergeCell ref="B45:N45"/>
     <mergeCell ref="I14:J14"/>
@@ -25099,6 +25095,11 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:N6"/>
+    <mergeCell ref="B7:N7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
